--- a/answer.xlsx
+++ b/answer.xlsx
@@ -16,646 +16,646 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
+    <t>X27</t>
+  </si>
+  <si>
+    <t>X28</t>
+  </si>
+  <si>
+    <t>X29</t>
+  </si>
+  <si>
+    <t>X30</t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>X33</t>
+  </si>
+  <si>
+    <t>X34</t>
+  </si>
+  <si>
+    <t>X35</t>
+  </si>
+  <si>
+    <t>X36</t>
+  </si>
+  <si>
+    <t>X37</t>
+  </si>
+  <si>
+    <t>X38</t>
+  </si>
+  <si>
+    <t>X39</t>
+  </si>
+  <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>X41</t>
+  </si>
+  <si>
+    <t>X42</t>
+  </si>
+  <si>
+    <t>X43</t>
+  </si>
+  <si>
+    <t>X44</t>
+  </si>
+  <si>
+    <t>X45</t>
+  </si>
+  <si>
+    <t>X46</t>
+  </si>
+  <si>
+    <t>X47</t>
+  </si>
+  <si>
+    <t>X48</t>
+  </si>
+  <si>
+    <t>X49</t>
+  </si>
+  <si>
+    <t>X50</t>
+  </si>
+  <si>
+    <t>X51</t>
+  </si>
+  <si>
+    <t>X52</t>
+  </si>
+  <si>
+    <t>X53</t>
+  </si>
+  <si>
+    <t>X54</t>
+  </si>
+  <si>
+    <t>X55</t>
+  </si>
+  <si>
+    <t>X56</t>
+  </si>
+  <si>
+    <t>X57</t>
+  </si>
+  <si>
+    <t>X58</t>
+  </si>
+  <si>
+    <t>X59</t>
+  </si>
+  <si>
+    <t>X60</t>
+  </si>
+  <si>
+    <t>X61</t>
+  </si>
+  <si>
+    <t>X62</t>
+  </si>
+  <si>
+    <t>X63</t>
+  </si>
+  <si>
+    <t>X64</t>
+  </si>
+  <si>
+    <t>X65</t>
+  </si>
+  <si>
+    <t>X66</t>
+  </si>
+  <si>
+    <t>X67</t>
+  </si>
+  <si>
+    <t>X68</t>
+  </si>
+  <si>
+    <t>X69</t>
+  </si>
+  <si>
+    <t>X70</t>
+  </si>
+  <si>
+    <t>X71</t>
+  </si>
+  <si>
+    <t>X72</t>
+  </si>
+  <si>
+    <t>X73</t>
+  </si>
+  <si>
+    <t>X74</t>
+  </si>
+  <si>
+    <t>X75</t>
+  </si>
+  <si>
+    <t>X76</t>
+  </si>
+  <si>
+    <t>X77</t>
+  </si>
+  <si>
+    <t>X78</t>
+  </si>
+  <si>
+    <t>X79</t>
+  </si>
+  <si>
+    <t>X80</t>
+  </si>
+  <si>
+    <t>X81</t>
+  </si>
+  <si>
+    <t>X82</t>
+  </si>
+  <si>
+    <t>X83</t>
+  </si>
+  <si>
+    <t>X84</t>
+  </si>
+  <si>
+    <t>X85</t>
+  </si>
+  <si>
+    <t>X86</t>
+  </si>
+  <si>
+    <t>X87</t>
+  </si>
+  <si>
+    <t>X88</t>
+  </si>
+  <si>
+    <t>X89</t>
+  </si>
+  <si>
+    <t>X90</t>
+  </si>
+  <si>
+    <t>X91</t>
+  </si>
+  <si>
+    <t>X92</t>
+  </si>
+  <si>
+    <t>X93</t>
+  </si>
+  <si>
+    <t>X94</t>
+  </si>
+  <si>
+    <t>X95</t>
+  </si>
+  <si>
+    <t>X96</t>
+  </si>
+  <si>
+    <t>X97</t>
+  </si>
+  <si>
+    <t>X98</t>
+  </si>
+  <si>
+    <t>X99</t>
+  </si>
+  <si>
+    <t>X100</t>
+  </si>
+  <si>
+    <t>X101</t>
+  </si>
+  <si>
+    <t>X102</t>
+  </si>
+  <si>
+    <t>X103</t>
+  </si>
+  <si>
+    <t>X104</t>
+  </si>
+  <si>
+    <t>X105</t>
+  </si>
+  <si>
+    <t>X106</t>
+  </si>
+  <si>
+    <t>X107</t>
+  </si>
+  <si>
+    <t>X108</t>
+  </si>
+  <si>
+    <t>X109</t>
+  </si>
+  <si>
+    <t>X110</t>
+  </si>
+  <si>
+    <t>X111</t>
+  </si>
+  <si>
+    <t>X112</t>
+  </si>
+  <si>
+    <t>X113</t>
+  </si>
+  <si>
+    <t>X114</t>
+  </si>
+  <si>
+    <t>X115</t>
+  </si>
+  <si>
+    <t>X116</t>
+  </si>
+  <si>
+    <t>X117</t>
+  </si>
+  <si>
+    <t>X118</t>
+  </si>
+  <si>
+    <t>X119</t>
+  </si>
+  <si>
+    <t>X120</t>
+  </si>
+  <si>
+    <t>X121</t>
+  </si>
+  <si>
+    <t>X122</t>
+  </si>
+  <si>
+    <t>X123</t>
+  </si>
+  <si>
+    <t>X124</t>
+  </si>
+  <si>
+    <t>X125</t>
+  </si>
+  <si>
+    <t>X126</t>
+  </si>
+  <si>
+    <t>X127</t>
+  </si>
+  <si>
+    <t>X128</t>
+  </si>
+  <si>
+    <t>X129</t>
+  </si>
+  <si>
+    <t>X130</t>
+  </si>
+  <si>
+    <t>X131</t>
+  </si>
+  <si>
+    <t>X132</t>
+  </si>
+  <si>
+    <t>X133</t>
+  </si>
+  <si>
+    <t>X134</t>
+  </si>
+  <si>
+    <t>X135</t>
+  </si>
+  <si>
+    <t>X136</t>
+  </si>
+  <si>
+    <t>X137</t>
+  </si>
+  <si>
+    <t>X138</t>
+  </si>
+  <si>
+    <t>X139</t>
+  </si>
+  <si>
+    <t>X140</t>
+  </si>
+  <si>
+    <t>X141</t>
+  </si>
+  <si>
+    <t>X142</t>
+  </si>
+  <si>
+    <t>X143</t>
+  </si>
+  <si>
+    <t>X144</t>
+  </si>
+  <si>
+    <t>X145</t>
+  </si>
+  <si>
+    <t>X146</t>
+  </si>
+  <si>
+    <t>X147</t>
+  </si>
+  <si>
+    <t>X148</t>
+  </si>
+  <si>
+    <t>X149</t>
+  </si>
+  <si>
+    <t>X150</t>
+  </si>
+  <si>
+    <t>X151</t>
+  </si>
+  <si>
+    <t>X152</t>
+  </si>
+  <si>
+    <t>X153</t>
+  </si>
+  <si>
+    <t>X154</t>
+  </si>
+  <si>
+    <t>X155</t>
+  </si>
+  <si>
+    <t>X156</t>
+  </si>
+  <si>
+    <t>X157</t>
+  </si>
+  <si>
+    <t>X158</t>
+  </si>
+  <si>
+    <t>X159</t>
+  </si>
+  <si>
+    <t>X160</t>
+  </si>
+  <si>
+    <t>X161</t>
+  </si>
+  <si>
+    <t>X162</t>
+  </si>
+  <si>
+    <t>X163</t>
+  </si>
+  <si>
+    <t>X164</t>
+  </si>
+  <si>
+    <t>X165</t>
+  </si>
+  <si>
+    <t>X166</t>
+  </si>
+  <si>
+    <t>X167</t>
+  </si>
+  <si>
+    <t>X168</t>
+  </si>
+  <si>
+    <t>X169</t>
+  </si>
+  <si>
+    <t>X170</t>
+  </si>
+  <si>
+    <t>X171</t>
+  </si>
+  <si>
+    <t>X172</t>
+  </si>
+  <si>
+    <t>X173</t>
+  </si>
+  <si>
+    <t>X174</t>
+  </si>
+  <si>
+    <t>X175</t>
+  </si>
+  <si>
+    <t>X176</t>
+  </si>
+  <si>
+    <t>X177</t>
+  </si>
+  <si>
+    <t>X178</t>
+  </si>
+  <si>
+    <t>X179</t>
+  </si>
+  <si>
+    <t>X180</t>
+  </si>
+  <si>
+    <t>X181</t>
+  </si>
+  <si>
+    <t>X182</t>
+  </si>
+  <si>
+    <t>X183</t>
+  </si>
+  <si>
+    <t>X184</t>
+  </si>
+  <si>
+    <t>X185</t>
+  </si>
+  <si>
+    <t>X186</t>
+  </si>
+  <si>
+    <t>X187</t>
+  </si>
+  <si>
+    <t>X188</t>
+  </si>
+  <si>
+    <t>X189</t>
+  </si>
+  <si>
+    <t>X190</t>
+  </si>
+  <si>
+    <t>X191</t>
+  </si>
+  <si>
+    <t>X192</t>
+  </si>
+  <si>
+    <t>X193</t>
+  </si>
+  <si>
+    <t>X194</t>
+  </si>
+  <si>
+    <t>X195</t>
+  </si>
+  <si>
+    <t>X196</t>
+  </si>
+  <si>
+    <t>X197</t>
+  </si>
+  <si>
+    <t>X198</t>
+  </si>
+  <si>
+    <t>X199</t>
+  </si>
+  <si>
+    <t>X200</t>
+  </si>
+  <si>
+    <t>X201</t>
+  </si>
+  <si>
+    <t>X202</t>
+  </si>
+  <si>
+    <t>X203</t>
+  </si>
+  <si>
+    <t>X204</t>
+  </si>
+  <si>
+    <t>X205</t>
+  </si>
+  <si>
+    <t>X206</t>
+  </si>
+  <si>
+    <t>X207</t>
+  </si>
+  <si>
+    <t>X208</t>
+  </si>
+  <si>
+    <t>X209</t>
+  </si>
+  <si>
+    <t>X210</t>
+  </si>
+  <si>
+    <t>X211</t>
+  </si>
+  <si>
+    <t>X212</t>
+  </si>
+  <si>
+    <t>X213</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
     <t>X1</t>
   </si>
   <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
     <t>X7</t>
-  </si>
-  <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>X25</t>
-  </si>
-  <si>
-    <t>X26</t>
-  </si>
-  <si>
-    <t>X27</t>
-  </si>
-  <si>
-    <t>X28</t>
-  </si>
-  <si>
-    <t>X29</t>
-  </si>
-  <si>
-    <t>X30</t>
-  </si>
-  <si>
-    <t>X31</t>
-  </si>
-  <si>
-    <t>X32</t>
-  </si>
-  <si>
-    <t>X33</t>
-  </si>
-  <si>
-    <t>X34</t>
-  </si>
-  <si>
-    <t>X35</t>
-  </si>
-  <si>
-    <t>X36</t>
-  </si>
-  <si>
-    <t>X37</t>
-  </si>
-  <si>
-    <t>X38</t>
-  </si>
-  <si>
-    <t>X39</t>
-  </si>
-  <si>
-    <t>X40</t>
-  </si>
-  <si>
-    <t>X41</t>
-  </si>
-  <si>
-    <t>X42</t>
-  </si>
-  <si>
-    <t>X43</t>
-  </si>
-  <si>
-    <t>X44</t>
-  </si>
-  <si>
-    <t>X45</t>
-  </si>
-  <si>
-    <t>X46</t>
-  </si>
-  <si>
-    <t>X47</t>
-  </si>
-  <si>
-    <t>X48</t>
-  </si>
-  <si>
-    <t>X49</t>
-  </si>
-  <si>
-    <t>X50</t>
-  </si>
-  <si>
-    <t>X51</t>
-  </si>
-  <si>
-    <t>X52</t>
-  </si>
-  <si>
-    <t>X53</t>
-  </si>
-  <si>
-    <t>X54</t>
-  </si>
-  <si>
-    <t>X55</t>
-  </si>
-  <si>
-    <t>X56</t>
-  </si>
-  <si>
-    <t>X57</t>
-  </si>
-  <si>
-    <t>X58</t>
-  </si>
-  <si>
-    <t>X59</t>
-  </si>
-  <si>
-    <t>X60</t>
-  </si>
-  <si>
-    <t>X61</t>
-  </si>
-  <si>
-    <t>X62</t>
-  </si>
-  <si>
-    <t>X63</t>
-  </si>
-  <si>
-    <t>X64</t>
-  </si>
-  <si>
-    <t>X65</t>
-  </si>
-  <si>
-    <t>X66</t>
-  </si>
-  <si>
-    <t>X67</t>
-  </si>
-  <si>
-    <t>X68</t>
-  </si>
-  <si>
-    <t>X69</t>
-  </si>
-  <si>
-    <t>X70</t>
-  </si>
-  <si>
-    <t>X71</t>
-  </si>
-  <si>
-    <t>X72</t>
-  </si>
-  <si>
-    <t>X73</t>
-  </si>
-  <si>
-    <t>X74</t>
-  </si>
-  <si>
-    <t>X75</t>
-  </si>
-  <si>
-    <t>X76</t>
-  </si>
-  <si>
-    <t>X77</t>
-  </si>
-  <si>
-    <t>X78</t>
-  </si>
-  <si>
-    <t>X79</t>
-  </si>
-  <si>
-    <t>X80</t>
-  </si>
-  <si>
-    <t>X81</t>
-  </si>
-  <si>
-    <t>X82</t>
-  </si>
-  <si>
-    <t>X83</t>
-  </si>
-  <si>
-    <t>X84</t>
-  </si>
-  <si>
-    <t>X85</t>
-  </si>
-  <si>
-    <t>X86</t>
-  </si>
-  <si>
-    <t>X87</t>
-  </si>
-  <si>
-    <t>X88</t>
-  </si>
-  <si>
-    <t>X89</t>
-  </si>
-  <si>
-    <t>X90</t>
-  </si>
-  <si>
-    <t>X91</t>
-  </si>
-  <si>
-    <t>X92</t>
-  </si>
-  <si>
-    <t>X93</t>
-  </si>
-  <si>
-    <t>X94</t>
-  </si>
-  <si>
-    <t>X95</t>
-  </si>
-  <si>
-    <t>X96</t>
-  </si>
-  <si>
-    <t>X97</t>
-  </si>
-  <si>
-    <t>X98</t>
-  </si>
-  <si>
-    <t>X99</t>
-  </si>
-  <si>
-    <t>X100</t>
-  </si>
-  <si>
-    <t>X101</t>
-  </si>
-  <si>
-    <t>X102</t>
-  </si>
-  <si>
-    <t>X103</t>
-  </si>
-  <si>
-    <t>X104</t>
-  </si>
-  <si>
-    <t>X105</t>
-  </si>
-  <si>
-    <t>X106</t>
-  </si>
-  <si>
-    <t>X107</t>
-  </si>
-  <si>
-    <t>X108</t>
-  </si>
-  <si>
-    <t>X109</t>
-  </si>
-  <si>
-    <t>X110</t>
-  </si>
-  <si>
-    <t>X111</t>
-  </si>
-  <si>
-    <t>X112</t>
-  </si>
-  <si>
-    <t>X113</t>
-  </si>
-  <si>
-    <t>X114</t>
-  </si>
-  <si>
-    <t>X115</t>
-  </si>
-  <si>
-    <t>X116</t>
-  </si>
-  <si>
-    <t>X117</t>
-  </si>
-  <si>
-    <t>X118</t>
-  </si>
-  <si>
-    <t>X119</t>
-  </si>
-  <si>
-    <t>X120</t>
-  </si>
-  <si>
-    <t>X121</t>
-  </si>
-  <si>
-    <t>X122</t>
-  </si>
-  <si>
-    <t>X123</t>
-  </si>
-  <si>
-    <t>X124</t>
-  </si>
-  <si>
-    <t>X125</t>
-  </si>
-  <si>
-    <t>X126</t>
-  </si>
-  <si>
-    <t>X127</t>
-  </si>
-  <si>
-    <t>X128</t>
-  </si>
-  <si>
-    <t>X129</t>
-  </si>
-  <si>
-    <t>X130</t>
-  </si>
-  <si>
-    <t>X131</t>
-  </si>
-  <si>
-    <t>X132</t>
-  </si>
-  <si>
-    <t>X133</t>
-  </si>
-  <si>
-    <t>X134</t>
-  </si>
-  <si>
-    <t>X135</t>
-  </si>
-  <si>
-    <t>X136</t>
-  </si>
-  <si>
-    <t>X137</t>
-  </si>
-  <si>
-    <t>X138</t>
-  </si>
-  <si>
-    <t>X139</t>
-  </si>
-  <si>
-    <t>X140</t>
-  </si>
-  <si>
-    <t>X141</t>
-  </si>
-  <si>
-    <t>X142</t>
-  </si>
-  <si>
-    <t>X143</t>
-  </si>
-  <si>
-    <t>X144</t>
-  </si>
-  <si>
-    <t>X145</t>
-  </si>
-  <si>
-    <t>X146</t>
-  </si>
-  <si>
-    <t>X147</t>
-  </si>
-  <si>
-    <t>X148</t>
-  </si>
-  <si>
-    <t>X149</t>
-  </si>
-  <si>
-    <t>X150</t>
-  </si>
-  <si>
-    <t>X151</t>
-  </si>
-  <si>
-    <t>X152</t>
-  </si>
-  <si>
-    <t>X153</t>
-  </si>
-  <si>
-    <t>X154</t>
-  </si>
-  <si>
-    <t>X155</t>
-  </si>
-  <si>
-    <t>X156</t>
-  </si>
-  <si>
-    <t>X157</t>
-  </si>
-  <si>
-    <t>X158</t>
-  </si>
-  <si>
-    <t>X159</t>
-  </si>
-  <si>
-    <t>X160</t>
-  </si>
-  <si>
-    <t>X161</t>
-  </si>
-  <si>
-    <t>X162</t>
-  </si>
-  <si>
-    <t>X163</t>
-  </si>
-  <si>
-    <t>X164</t>
-  </si>
-  <si>
-    <t>X165</t>
-  </si>
-  <si>
-    <t>X166</t>
-  </si>
-  <si>
-    <t>X167</t>
-  </si>
-  <si>
-    <t>X168</t>
-  </si>
-  <si>
-    <t>X169</t>
-  </si>
-  <si>
-    <t>X170</t>
-  </si>
-  <si>
-    <t>X171</t>
-  </si>
-  <si>
-    <t>X172</t>
-  </si>
-  <si>
-    <t>X173</t>
-  </si>
-  <si>
-    <t>X174</t>
-  </si>
-  <si>
-    <t>X175</t>
-  </si>
-  <si>
-    <t>X176</t>
-  </si>
-  <si>
-    <t>X177</t>
-  </si>
-  <si>
-    <t>X178</t>
-  </si>
-  <si>
-    <t>X179</t>
-  </si>
-  <si>
-    <t>X180</t>
-  </si>
-  <si>
-    <t>X181</t>
-  </si>
-  <si>
-    <t>X182</t>
-  </si>
-  <si>
-    <t>X183</t>
-  </si>
-  <si>
-    <t>X184</t>
-  </si>
-  <si>
-    <t>X185</t>
-  </si>
-  <si>
-    <t>X186</t>
-  </si>
-  <si>
-    <t>X187</t>
-  </si>
-  <si>
-    <t>X188</t>
-  </si>
-  <si>
-    <t>X189</t>
-  </si>
-  <si>
-    <t>X190</t>
-  </si>
-  <si>
-    <t>X191</t>
-  </si>
-  <si>
-    <t>X192</t>
-  </si>
-  <si>
-    <t>X193</t>
-  </si>
-  <si>
-    <t>X194</t>
-  </si>
-  <si>
-    <t>X195</t>
-  </si>
-  <si>
-    <t>X196</t>
-  </si>
-  <si>
-    <t>X197</t>
-  </si>
-  <si>
-    <t>X198</t>
-  </si>
-  <si>
-    <t>X199</t>
-  </si>
-  <si>
-    <t>X200</t>
-  </si>
-  <si>
-    <t>X201</t>
-  </si>
-  <si>
-    <t>X202</t>
-  </si>
-  <si>
-    <t>X203</t>
-  </si>
-  <si>
-    <t>X204</t>
-  </si>
-  <si>
-    <t>X205</t>
-  </si>
-  <si>
-    <t>X206</t>
-  </si>
-  <si>
-    <t>X207</t>
-  </si>
-  <si>
-    <t>X208</t>
-  </si>
-  <si>
-    <t>X209</t>
-  </si>
-  <si>
-    <t>X210</t>
-  </si>
-  <si>
-    <t>X211</t>
-  </si>
-  <si>
-    <t>X212</t>
-  </si>
-  <si>
-    <t>X213</t>
-  </si>
-  <si>
-    <t>X214</t>
-  </si>
-  <si>
-    <t>X4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1018,7 +1018,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1090,15 +1090,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1106,15 +1106,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1122,15 +1122,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1138,23 +1138,23 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1162,95 +1162,95 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1266,23 +1266,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1290,23 +1290,23 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1314,55 +1314,55 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1370,55 +1370,55 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1426,47 +1426,47 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1474,39 +1474,39 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1514,23 +1514,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1538,23 +1538,23 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1562,15 +1562,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1578,15 +1578,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1594,159 +1594,159 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1754,87 +1754,87 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1850,31 +1850,31 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -1882,23 +1882,23 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -1914,39 +1914,39 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -1962,39 +1962,39 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -2010,31 +2010,31 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2050,79 +2050,79 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2130,79 +2130,79 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2210,215 +2210,215 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -2426,111 +2426,111 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -2538,39 +2538,39 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -2578,15 +2578,15 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -2594,23 +2594,23 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -2618,114 +2618,114 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
